--- a/JRI_PROJECTWORK_9PMbatch/src/test/resources/testdata/JRI_TestCases_9PMbatch_ProjectWorkAssignment.xlsx
+++ b/JRI_PROJECTWORK_9PMbatch/src/test/resources/testdata/JRI_TestCases_9PMbatch_ProjectWorkAssignment.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="495" windowWidth="23655" windowHeight="9405"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15810" windowHeight="3165"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="3" r:id="rId1"/>
@@ -12,7 +12,8 @@
     <sheet name="TestData" sheetId="2" r:id="rId3"/>
     <sheet name="JRI_MobileADD" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:E6"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="" roundtripDataSignature="AMtx7mgF78/a9H+gPNq346+/pi9hfI337Q=="/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="225">
   <si>
     <t>S.No</t>
   </si>
@@ -768,33 +769,6 @@
     <t>Location</t>
   </si>
   <si>
-    <t>9685741203</t>
-  </si>
-  <si>
-    <t>test1</t>
-  </si>
-  <si>
-    <t>test2</t>
-  </si>
-  <si>
-    <t>test3</t>
-  </si>
-  <si>
-    <t>test4</t>
-  </si>
-  <si>
-    <t>test5</t>
-  </si>
-  <si>
-    <t>test6</t>
-  </si>
-  <si>
-    <t>test7</t>
-  </si>
-  <si>
-    <t>test8</t>
-  </si>
-  <si>
     <t>Jio</t>
   </si>
   <si>
@@ -828,9 +802,6 @@
     <t>Manpreet</t>
   </si>
   <si>
-    <t>Teju</t>
-  </si>
-  <si>
     <t>Tejaswini</t>
   </si>
   <si>
@@ -839,11 +810,68 @@
   <si>
     <t>Saravanan</t>
   </si>
+  <si>
+    <t>9685741204</t>
+  </si>
+  <si>
+    <t>9685741205</t>
+  </si>
+  <si>
+    <t>9685741206</t>
+  </si>
+  <si>
+    <t>9685741207</t>
+  </si>
+  <si>
+    <t>9685741208</t>
+  </si>
+  <si>
+    <t>9685741209</t>
+  </si>
+  <si>
+    <t>9685741200</t>
+  </si>
+  <si>
+    <t>9685741202</t>
+  </si>
+  <si>
+    <t>9685741234</t>
+  </si>
+  <si>
+    <t>randomnum1</t>
+  </si>
+  <si>
+    <t>randomnum2</t>
+  </si>
+  <si>
+    <t>randomnum3</t>
+  </si>
+  <si>
+    <t>randomnum4</t>
+  </si>
+  <si>
+    <t>randomnum5</t>
+  </si>
+  <si>
+    <t>randomnum6</t>
+  </si>
+  <si>
+    <t>randomnum7</t>
+  </si>
+  <si>
+    <t>randomnum8</t>
+  </si>
+  <si>
+    <t>randomnum9</t>
+  </si>
+  <si>
+    <t>Thriveni</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="25">
     <font>
       <sz val="11"/>
@@ -1360,6 +1388,12 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1383,12 +1417,6 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1396,6 +1424,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1596,11 +1632,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.875" defaultRowHeight="15" customHeight="1"/>
@@ -1611,20 +1647,20 @@
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="87" customFormat="1">
-      <c r="A1" s="86" t="s">
+    <row r="1" spans="1:5" s="76" customFormat="1">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="86" t="s">
-        <v>209</v>
+      <c r="C1" s="75" t="s">
+        <v>200</v>
       </c>
-      <c r="D1" s="86" t="s">
+      <c r="D1" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="86" t="s">
+      <c r="E1" s="75" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1636,7 +1672,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="56" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>14</v>
@@ -1651,7 +1687,7 @@
         <v>16</v>
       </c>
       <c r="C3" s="56" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -1664,7 +1700,7 @@
         <v>20</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -1677,7 +1713,7 @@
         <v>22</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -1690,7 +1726,7 @@
         <v>24</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -1703,7 +1739,7 @@
         <v>26</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -2713,11 +2749,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1006"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView topLeftCell="B18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="14.25"/>
@@ -2787,13 +2823,13 @@
       <c r="A2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="80"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="58"/>
       <c r="H2" s="17"/>
       <c r="I2" s="19"/>
@@ -3172,13 +3208,13 @@
       <c r="A13" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="78" t="s">
+      <c r="B13" s="80" t="s">
         <v>118</v>
       </c>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="80"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="82"/>
       <c r="G13" s="58"/>
       <c r="H13" s="16"/>
       <c r="I13" s="19"/>
@@ -3563,13 +3599,13 @@
       <c r="A24" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="81" t="s">
+      <c r="B24" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="77"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="79"/>
       <c r="G24" s="57"/>
       <c r="H24" s="30"/>
       <c r="I24" s="31"/>
@@ -3769,13 +3805,13 @@
       <c r="A30" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="83" t="s">
+      <c r="B30" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="84"/>
-      <c r="D30" s="84"/>
-      <c r="E30" s="84"/>
-      <c r="F30" s="85"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="87"/>
       <c r="G30" s="59"/>
       <c r="H30" s="30"/>
       <c r="I30" s="31"/>
@@ -3906,13 +3942,13 @@
       <c r="A34" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="82" t="s">
+      <c r="B34" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="76"/>
-      <c r="D34" s="76"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="77"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="78"/>
+      <c r="F34" s="79"/>
       <c r="G34" s="57"/>
       <c r="H34" s="30"/>
       <c r="I34" s="31"/>
@@ -4042,13 +4078,13 @@
       <c r="A38" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="75" t="s">
+      <c r="B38" s="77" t="s">
         <v>116</v>
       </c>
-      <c r="C38" s="76"/>
-      <c r="D38" s="76"/>
-      <c r="E38" s="76"/>
-      <c r="F38" s="77"/>
+      <c r="C38" s="78"/>
+      <c r="D38" s="78"/>
+      <c r="E38" s="78"/>
+      <c r="F38" s="79"/>
       <c r="G38" s="57"/>
       <c r="H38" s="30"/>
       <c r="I38" s="31"/>
@@ -4283,13 +4319,13 @@
       <c r="A45" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="B45" s="75" t="s">
+      <c r="B45" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="C45" s="76"/>
-      <c r="D45" s="76"/>
-      <c r="E45" s="76"/>
-      <c r="F45" s="77"/>
+      <c r="C45" s="78"/>
+      <c r="D45" s="78"/>
+      <c r="E45" s="78"/>
+      <c r="F45" s="79"/>
       <c r="G45" s="57"/>
       <c r="H45" s="16"/>
       <c r="I45" s="19"/>
@@ -30256,11 +30292,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F999"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView zoomScale="70" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -31332,11 +31368,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.5" defaultRowHeight="14.25"/>
@@ -31357,114 +31393,128 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="74" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" s="73" t="s">
         <v>192</v>
       </c>
-      <c r="B2" s="73" t="s">
-        <v>201</v>
+      <c r="C2" s="73" t="s">
+        <v>215</v>
       </c>
-      <c r="C2" s="73" t="s">
+      <c r="D2" s="73" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="74" t="s">
+        <v>207</v>
+      </c>
+      <c r="B3" s="73" t="s">
         <v>193</v>
       </c>
-      <c r="D2" s="73" t="s">
-        <v>205</v>
+      <c r="C3" s="73" t="s">
+        <v>216</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="74" t="s">
+      <c r="D3" s="73" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="74" t="s">
+        <v>208</v>
+      </c>
+      <c r="B4" s="73" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" s="73" t="s">
+        <v>217</v>
+      </c>
+      <c r="D4" s="73" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="74" t="s">
+        <v>209</v>
+      </c>
+      <c r="B5" s="73" t="s">
+        <v>193</v>
+      </c>
+      <c r="C5" s="73" t="s">
+        <v>218</v>
+      </c>
+      <c r="D5" s="73" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="74" t="s">
+        <v>210</v>
+      </c>
+      <c r="B6" s="73" t="s">
+        <v>195</v>
+      </c>
+      <c r="C6" s="73" t="s">
+        <v>219</v>
+      </c>
+      <c r="D6" s="73" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="74" t="s">
+        <v>211</v>
+      </c>
+      <c r="B7" s="73" t="s">
         <v>192</v>
       </c>
-      <c r="B3" s="73" t="s">
-        <v>202</v>
+      <c r="C7" s="73" t="s">
+        <v>220</v>
       </c>
-      <c r="C3" s="73" t="s">
-        <v>194</v>
+      <c r="D7" s="73" t="s">
+        <v>197</v>
       </c>
-      <c r="D3" s="73" t="s">
-        <v>206</v>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="74" t="s">
+        <v>213</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="74" t="s">
+      <c r="B8" s="73" t="s">
+        <v>193</v>
+      </c>
+      <c r="C8" s="73" t="s">
+        <v>221</v>
+      </c>
+      <c r="D8" s="73" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="74" t="s">
+        <v>212</v>
+      </c>
+      <c r="B9" s="73" t="s">
         <v>192</v>
       </c>
-      <c r="B4" s="73" t="s">
-        <v>203</v>
+      <c r="C9" s="73" t="s">
+        <v>222</v>
       </c>
-      <c r="C4" s="73" t="s">
-        <v>195</v>
-      </c>
-      <c r="D4" s="73" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="74" t="s">
-        <v>192</v>
-      </c>
-      <c r="B5" s="73" t="s">
-        <v>202</v>
-      </c>
-      <c r="C5" s="73" t="s">
-        <v>196</v>
-      </c>
-      <c r="D5" s="73" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="74" t="s">
-        <v>192</v>
-      </c>
-      <c r="B6" s="73" t="s">
-        <v>204</v>
-      </c>
-      <c r="C6" s="73" t="s">
-        <v>197</v>
-      </c>
-      <c r="D6" s="73" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="74" t="s">
-        <v>192</v>
-      </c>
-      <c r="B7" s="73" t="s">
-        <v>201</v>
-      </c>
-      <c r="C7" s="73" t="s">
-        <v>198</v>
-      </c>
-      <c r="D7" s="73" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="74" t="s">
-        <v>192</v>
-      </c>
-      <c r="B8" s="73" t="s">
-        <v>202</v>
-      </c>
-      <c r="C8" s="73" t="s">
+      <c r="D9" s="73" t="s">
         <v>199</v>
       </c>
-      <c r="D8" s="73" t="s">
-        <v>207</v>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="74" t="s">
+        <v>214</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="74" t="s">
-        <v>192</v>
+      <c r="B10" s="73" t="s">
+        <v>193</v>
       </c>
-      <c r="B9" s="73" t="s">
-        <v>201</v>
+      <c r="C10" s="73" t="s">
+        <v>223</v>
       </c>
-      <c r="C9" s="73" t="s">
-        <v>200</v>
-      </c>
-      <c r="D9" s="73" t="s">
-        <v>208</v>
+      <c r="D10" s="73" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
